--- a/import_data/Scope 3 Emissions Factors.xlsx
+++ b/import_data/Scope 3 Emissions Factors.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://systemiq.sharepoint.com/Projects/MPP0006/Shared Documents/6_ Working documents/03 Steel python model/Data Sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{8F4AF713-8A4C-4592-B1D8-6EA6215F16D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6D42FF8-07F6-4964-B08F-A2D27F2388CC}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="8_{8F4AF713-8A4C-4592-B1D8-6EA6215F16D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82B5F934-331B-47BE-B418-5681A79DE411}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13373" xr2:uid="{20B9AD7C-31DE-49D1-ABBE-CD36CEC5113E}"/>
   </bookViews>
@@ -37,10 +37,28 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Fuel</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Scope 3 Emissions Factor</t>
+  </si>
+  <si>
     <t>Natural gas</t>
   </si>
   <si>
+    <t>MtCO2eq / PJ</t>
+  </si>
+  <si>
     <t>Iron ore</t>
+  </si>
+  <si>
+    <t>tCOeq / ton iron ore</t>
   </si>
   <si>
     <t>Met coal</t>
@@ -52,34 +70,16 @@
     <t>Slag</t>
   </si>
   <si>
-    <t>Energy density of met coal [MJ/kg]</t>
-  </si>
-  <si>
-    <t>Substitution GHG reduction factor</t>
-  </si>
-  <si>
-    <t>MtCO2eq / PJ</t>
-  </si>
-  <si>
-    <t>tCOeq / ton iron ore</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Scope 3 Emissions Factor</t>
-  </si>
-  <si>
-    <t>Unit</t>
-  </si>
-  <si>
     <t>ton CO2eq / ton slag</t>
   </si>
   <si>
     <t>Year</t>
   </si>
   <si>
-    <t>Fuel</t>
+    <t>Substitution GHG reduction factor</t>
+  </si>
+  <si>
+    <t>Energy density of met coal [MJ/kg]</t>
   </si>
   <si>
     <t>Slag [ton CO2eq/ton Slag]</t>
@@ -89,7 +89,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,10 +188,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -514,26 +513,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{246167E3-ABFA-4DF2-BDC9-BE8A0DFB3E24}">
   <dimension ref="A1:AH6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:AH4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="20.64453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.76171875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1171875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:34" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1">
         <v>2020</v>
@@ -629,15 +628,15 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:34">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>8.9171974522292991E-3</v>
@@ -733,358 +732,358 @@
         <v>2.9723991507430998E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:34">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="E3">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="F3">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="G3">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="H3">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="I3">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="J3">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="K3">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="L3">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="M3">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="N3">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="O3">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="P3">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="Q3">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="R3">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="S3">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="T3">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="U3">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="V3">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="W3">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="X3">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="Y3">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="Z3">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="AA3">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="AB3">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="AC3">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="AD3">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="AE3">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="AF3">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="AG3">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="AH3">
+        <v>1.1900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <f>0.01277584</f>
+        <v>1.277584E-2</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:AH4" si="0">0.01277584</f>
+        <v>1.277584E-2</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>1.277584E-2</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>1.277584E-2</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>1.277584E-2</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>1.277584E-2</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>1.277584E-2</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>1.277584E-2</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>1.277584E-2</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>1.277584E-2</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>1.277584E-2</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="0"/>
+        <v>1.277584E-2</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>1.277584E-2</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="0"/>
+        <v>1.277584E-2</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="0"/>
+        <v>1.277584E-2</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="0"/>
+        <v>1.277584E-2</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="0"/>
+        <v>1.277584E-2</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="0"/>
+        <v>1.277584E-2</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="0"/>
+        <v>1.277584E-2</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="0"/>
+        <v>1.277584E-2</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="0"/>
+        <v>1.277584E-2</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="0"/>
+        <v>1.277584E-2</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="0"/>
+        <v>1.277584E-2</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" si="0"/>
+        <v>1.277584E-2</v>
+      </c>
+      <c r="AB4">
+        <f t="shared" si="0"/>
+        <v>1.277584E-2</v>
+      </c>
+      <c r="AC4">
+        <f t="shared" si="0"/>
+        <v>1.277584E-2</v>
+      </c>
+      <c r="AD4">
+        <f t="shared" si="0"/>
+        <v>1.277584E-2</v>
+      </c>
+      <c r="AE4">
+        <f t="shared" si="0"/>
+        <v>1.277584E-2</v>
+      </c>
+      <c r="AF4">
+        <f t="shared" si="0"/>
+        <v>1.277584E-2</v>
+      </c>
+      <c r="AG4">
+        <f t="shared" si="0"/>
+        <v>1.277584E-2</v>
+      </c>
+      <c r="AH4">
+        <f t="shared" si="0"/>
+        <v>1.277584E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>1.277584E-2</v>
+      </c>
+      <c r="E5">
+        <v>1.277584E-2</v>
+      </c>
+      <c r="F5">
+        <v>1.277584E-2</v>
+      </c>
+      <c r="G5">
+        <v>1.277584E-2</v>
+      </c>
+      <c r="H5">
+        <v>1.277584E-2</v>
+      </c>
+      <c r="I5">
+        <v>1.277584E-2</v>
+      </c>
+      <c r="J5">
+        <v>1.277584E-2</v>
+      </c>
+      <c r="K5">
+        <v>1.277584E-2</v>
+      </c>
+      <c r="L5">
+        <v>1.277584E-2</v>
+      </c>
+      <c r="M5">
+        <v>1.277584E-2</v>
+      </c>
+      <c r="N5">
+        <v>1.277584E-2</v>
+      </c>
+      <c r="O5">
+        <v>1.277584E-2</v>
+      </c>
+      <c r="P5">
+        <v>1.277584E-2</v>
+      </c>
+      <c r="Q5">
+        <v>1.277584E-2</v>
+      </c>
+      <c r="R5">
+        <v>1.277584E-2</v>
+      </c>
+      <c r="S5">
+        <v>1.277584E-2</v>
+      </c>
+      <c r="T5">
+        <v>1.277584E-2</v>
+      </c>
+      <c r="U5">
+        <v>1.277584E-2</v>
+      </c>
+      <c r="V5">
+        <v>1.277584E-2</v>
+      </c>
+      <c r="W5">
+        <v>1.277584E-2</v>
+      </c>
+      <c r="X5">
+        <v>1.277584E-2</v>
+      </c>
+      <c r="Y5">
+        <v>1.277584E-2</v>
+      </c>
+      <c r="Z5">
+        <v>1.277584E-2</v>
+      </c>
+      <c r="AA5">
+        <v>1.277584E-2</v>
+      </c>
+      <c r="AB5">
+        <v>1.277584E-2</v>
+      </c>
+      <c r="AC5">
+        <v>1.277584E-2</v>
+      </c>
+      <c r="AD5">
+        <v>1.277584E-2</v>
+      </c>
+      <c r="AE5">
+        <v>1.277584E-2</v>
+      </c>
+      <c r="AF5">
+        <v>1.277584E-2</v>
+      </c>
+      <c r="AG5">
+        <v>1.277584E-2</v>
+      </c>
+      <c r="AH5">
+        <v>1.277584E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3">
-        <v>1.1900000000000001E-2</v>
-      </c>
-      <c r="E3">
-        <v>1.1900000000000001E-2</v>
-      </c>
-      <c r="F3">
-        <v>1.1900000000000001E-2</v>
-      </c>
-      <c r="G3">
-        <v>1.1900000000000001E-2</v>
-      </c>
-      <c r="H3">
-        <v>1.1900000000000001E-2</v>
-      </c>
-      <c r="I3">
-        <v>1.1900000000000001E-2</v>
-      </c>
-      <c r="J3">
-        <v>1.1900000000000001E-2</v>
-      </c>
-      <c r="K3">
-        <v>1.1900000000000001E-2</v>
-      </c>
-      <c r="L3">
-        <v>1.1900000000000001E-2</v>
-      </c>
-      <c r="M3">
-        <v>1.1900000000000001E-2</v>
-      </c>
-      <c r="N3">
-        <v>1.1900000000000001E-2</v>
-      </c>
-      <c r="O3">
-        <v>1.1900000000000001E-2</v>
-      </c>
-      <c r="P3">
-        <v>1.1900000000000001E-2</v>
-      </c>
-      <c r="Q3">
-        <v>1.1900000000000001E-2</v>
-      </c>
-      <c r="R3">
-        <v>1.1900000000000001E-2</v>
-      </c>
-      <c r="S3">
-        <v>1.1900000000000001E-2</v>
-      </c>
-      <c r="T3">
-        <v>1.1900000000000001E-2</v>
-      </c>
-      <c r="U3">
-        <v>1.1900000000000001E-2</v>
-      </c>
-      <c r="V3">
-        <v>1.1900000000000001E-2</v>
-      </c>
-      <c r="W3">
-        <v>1.1900000000000001E-2</v>
-      </c>
-      <c r="X3">
-        <v>1.1900000000000001E-2</v>
-      </c>
-      <c r="Y3">
-        <v>1.1900000000000001E-2</v>
-      </c>
-      <c r="Z3">
-        <v>1.1900000000000001E-2</v>
-      </c>
-      <c r="AA3">
-        <v>1.1900000000000001E-2</v>
-      </c>
-      <c r="AB3">
-        <v>1.1900000000000001E-2</v>
-      </c>
-      <c r="AC3">
-        <v>1.1900000000000001E-2</v>
-      </c>
-      <c r="AD3">
-        <v>1.1900000000000001E-2</v>
-      </c>
-      <c r="AE3">
-        <v>1.1900000000000001E-2</v>
-      </c>
-      <c r="AF3">
-        <v>1.1900000000000001E-2</v>
-      </c>
-      <c r="AG3">
-        <v>1.1900000000000001E-2</v>
-      </c>
-      <c r="AH3">
-        <v>1.1900000000000001E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.5">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4">
-        <f>0.01277584*Assumptions!$B$5</f>
-        <v>0.35772352000000002</v>
-      </c>
-      <c r="E4">
-        <f>0.01277584*Assumptions!$B$5</f>
-        <v>0.35772352000000002</v>
-      </c>
-      <c r="F4">
-        <f>0.01277584*Assumptions!$B$5</f>
-        <v>0.35772352000000002</v>
-      </c>
-      <c r="G4">
-        <f>0.01277584*Assumptions!$B$5</f>
-        <v>0.35772352000000002</v>
-      </c>
-      <c r="H4">
-        <f>0.01277584*Assumptions!$B$5</f>
-        <v>0.35772352000000002</v>
-      </c>
-      <c r="I4">
-        <f>0.01277584*Assumptions!$B$5</f>
-        <v>0.35772352000000002</v>
-      </c>
-      <c r="J4">
-        <f>0.01277584*Assumptions!$B$5</f>
-        <v>0.35772352000000002</v>
-      </c>
-      <c r="K4">
-        <f>0.01277584*Assumptions!$B$5</f>
-        <v>0.35772352000000002</v>
-      </c>
-      <c r="L4">
-        <f>0.01277584*Assumptions!$B$5</f>
-        <v>0.35772352000000002</v>
-      </c>
-      <c r="M4">
-        <f>0.01277584*Assumptions!$B$5</f>
-        <v>0.35772352000000002</v>
-      </c>
-      <c r="N4">
-        <f>0.01277584*Assumptions!$B$5</f>
-        <v>0.35772352000000002</v>
-      </c>
-      <c r="O4">
-        <f>0.01277584*Assumptions!$B$5</f>
-        <v>0.35772352000000002</v>
-      </c>
-      <c r="P4">
-        <f>0.01277584*Assumptions!$B$5</f>
-        <v>0.35772352000000002</v>
-      </c>
-      <c r="Q4">
-        <f>0.01277584*Assumptions!$B$5</f>
-        <v>0.35772352000000002</v>
-      </c>
-      <c r="R4">
-        <f>0.01277584*Assumptions!$B$5</f>
-        <v>0.35772352000000002</v>
-      </c>
-      <c r="S4">
-        <f>0.01277584*Assumptions!$B$5</f>
-        <v>0.35772352000000002</v>
-      </c>
-      <c r="T4">
-        <f>0.01277584*Assumptions!$B$5</f>
-        <v>0.35772352000000002</v>
-      </c>
-      <c r="U4">
-        <f>0.01277584*Assumptions!$B$5</f>
-        <v>0.35772352000000002</v>
-      </c>
-      <c r="V4">
-        <f>0.01277584*Assumptions!$B$5</f>
-        <v>0.35772352000000002</v>
-      </c>
-      <c r="W4">
-        <f>0.01277584*Assumptions!$B$5</f>
-        <v>0.35772352000000002</v>
-      </c>
-      <c r="X4">
-        <f>0.01277584*Assumptions!$B$5</f>
-        <v>0.35772352000000002</v>
-      </c>
-      <c r="Y4">
-        <f>0.01277584*Assumptions!$B$5</f>
-        <v>0.35772352000000002</v>
-      </c>
-      <c r="Z4">
-        <f>0.01277584*Assumptions!$B$5</f>
-        <v>0.35772352000000002</v>
-      </c>
-      <c r="AA4">
-        <f>0.01277584*Assumptions!$B$5</f>
-        <v>0.35772352000000002</v>
-      </c>
-      <c r="AB4">
-        <f>0.01277584*Assumptions!$B$5</f>
-        <v>0.35772352000000002</v>
-      </c>
-      <c r="AC4">
-        <f>0.01277584*Assumptions!$B$5</f>
-        <v>0.35772352000000002</v>
-      </c>
-      <c r="AD4">
-        <f>0.01277584*Assumptions!$B$5</f>
-        <v>0.35772352000000002</v>
-      </c>
-      <c r="AE4">
-        <f>0.01277584*Assumptions!$B$5</f>
-        <v>0.35772352000000002</v>
-      </c>
-      <c r="AF4">
-        <f>0.01277584*Assumptions!$B$5</f>
-        <v>0.35772352000000002</v>
-      </c>
-      <c r="AG4">
-        <f>0.01277584*Assumptions!$B$5</f>
-        <v>0.35772352000000002</v>
-      </c>
-      <c r="AH4">
-        <f>0.01277584*Assumptions!$B$5</f>
-        <v>0.35772352000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.5">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5">
-        <v>1.277584E-2</v>
-      </c>
-      <c r="E5">
-        <v>1.277584E-2</v>
-      </c>
-      <c r="F5">
-        <v>1.277584E-2</v>
-      </c>
-      <c r="G5">
-        <v>1.277584E-2</v>
-      </c>
-      <c r="H5">
-        <v>1.277584E-2</v>
-      </c>
-      <c r="I5">
-        <v>1.277584E-2</v>
-      </c>
-      <c r="J5">
-        <v>1.277584E-2</v>
-      </c>
-      <c r="K5">
-        <v>1.277584E-2</v>
-      </c>
-      <c r="L5">
-        <v>1.277584E-2</v>
-      </c>
-      <c r="M5">
-        <v>1.277584E-2</v>
-      </c>
-      <c r="N5">
-        <v>1.277584E-2</v>
-      </c>
-      <c r="O5">
-        <v>1.277584E-2</v>
-      </c>
-      <c r="P5">
-        <v>1.277584E-2</v>
-      </c>
-      <c r="Q5">
-        <v>1.277584E-2</v>
-      </c>
-      <c r="R5">
-        <v>1.277584E-2</v>
-      </c>
-      <c r="S5">
-        <v>1.277584E-2</v>
-      </c>
-      <c r="T5">
-        <v>1.277584E-2</v>
-      </c>
-      <c r="U5">
-        <v>1.277584E-2</v>
-      </c>
-      <c r="V5">
-        <v>1.277584E-2</v>
-      </c>
-      <c r="W5">
-        <v>1.277584E-2</v>
-      </c>
-      <c r="X5">
-        <v>1.277584E-2</v>
-      </c>
-      <c r="Y5">
-        <v>1.277584E-2</v>
-      </c>
-      <c r="Z5">
-        <v>1.277584E-2</v>
-      </c>
-      <c r="AA5">
-        <v>1.277584E-2</v>
-      </c>
-      <c r="AB5">
-        <v>1.277584E-2</v>
-      </c>
-      <c r="AC5">
-        <v>1.277584E-2</v>
-      </c>
-      <c r="AD5">
-        <v>1.277584E-2</v>
-      </c>
-      <c r="AE5">
-        <v>1.277584E-2</v>
-      </c>
-      <c r="AF5">
-        <v>1.277584E-2</v>
-      </c>
-      <c r="AG5">
-        <v>1.277584E-2</v>
-      </c>
-      <c r="AH5">
-        <v>1.277584E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.5">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6">
         <f>Assumptions!$B$6*Assumptions!C3</f>
@@ -1219,363 +1218,231 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99753EDD-1F6D-45B2-86F2-77B4F05FB3A5}">
-  <dimension ref="A2:AG7"/>
+  <dimension ref="A2:AG6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="30.5859375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5859375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:33" s="1" customFormat="1">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3">
+        <v>2020</v>
+      </c>
+      <c r="D2" s="3">
+        <v>2021</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2022</v>
+      </c>
+      <c r="F2" s="3">
+        <v>2023</v>
+      </c>
+      <c r="G2" s="3">
+        <v>2024</v>
+      </c>
+      <c r="H2" s="3">
+        <v>2025</v>
+      </c>
+      <c r="I2" s="3">
+        <v>2026</v>
+      </c>
+      <c r="J2" s="3">
+        <v>2027</v>
+      </c>
+      <c r="K2" s="3">
+        <v>2028</v>
+      </c>
+      <c r="L2" s="3">
+        <v>2029</v>
+      </c>
+      <c r="M2" s="3">
+        <v>2030</v>
+      </c>
+      <c r="N2" s="3">
+        <v>2031</v>
+      </c>
+      <c r="O2" s="3">
+        <v>2032</v>
+      </c>
+      <c r="P2" s="3">
+        <v>2033</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>2034</v>
+      </c>
+      <c r="R2" s="3">
+        <v>2035</v>
+      </c>
+      <c r="S2" s="3">
+        <v>2036</v>
+      </c>
+      <c r="T2" s="3">
+        <v>2037</v>
+      </c>
+      <c r="U2" s="3">
+        <v>2038</v>
+      </c>
+      <c r="V2" s="3">
+        <v>2039</v>
+      </c>
+      <c r="W2" s="3">
+        <v>2040</v>
+      </c>
+      <c r="X2" s="3">
+        <v>2041</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>2042</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>2043</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>2044</v>
+      </c>
+      <c r="AB2" s="3">
+        <v>2045</v>
+      </c>
+      <c r="AC2" s="3">
+        <v>2046</v>
+      </c>
+      <c r="AD2" s="3">
+        <v>2047</v>
+      </c>
+      <c r="AE2" s="3">
+        <v>2048</v>
+      </c>
+      <c r="AF2" s="3">
+        <v>2049</v>
+      </c>
+      <c r="AG2" s="4">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33">
+      <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4">
-        <v>2020</v>
-      </c>
-      <c r="D2" s="4">
-        <v>2021</v>
-      </c>
-      <c r="E2" s="4">
-        <v>2022</v>
-      </c>
-      <c r="F2" s="4">
-        <v>2023</v>
-      </c>
-      <c r="G2" s="4">
-        <v>2024</v>
-      </c>
-      <c r="H2" s="4">
-        <v>2025</v>
-      </c>
-      <c r="I2" s="4">
-        <v>2026</v>
-      </c>
-      <c r="J2" s="4">
-        <v>2027</v>
-      </c>
-      <c r="K2" s="4">
-        <v>2028</v>
-      </c>
-      <c r="L2" s="4">
-        <v>2029</v>
-      </c>
-      <c r="M2" s="4">
-        <v>2030</v>
-      </c>
-      <c r="N2" s="4">
-        <v>2031</v>
-      </c>
-      <c r="O2" s="4">
-        <v>2032</v>
-      </c>
-      <c r="P2" s="4">
-        <v>2033</v>
-      </c>
-      <c r="Q2" s="4">
-        <v>2034</v>
-      </c>
-      <c r="R2" s="4">
-        <v>2035</v>
-      </c>
-      <c r="S2" s="4">
-        <v>2036</v>
-      </c>
-      <c r="T2" s="4">
-        <v>2037</v>
-      </c>
-      <c r="U2" s="4">
-        <v>2038</v>
-      </c>
-      <c r="V2" s="4">
-        <v>2039</v>
-      </c>
-      <c r="W2" s="4">
-        <v>2040</v>
-      </c>
-      <c r="X2" s="4">
-        <v>2041</v>
-      </c>
-      <c r="Y2" s="4">
-        <v>2042</v>
-      </c>
-      <c r="Z2" s="4">
-        <v>2043</v>
-      </c>
-      <c r="AA2" s="4">
-        <v>2044</v>
-      </c>
-      <c r="AB2" s="4">
-        <v>2045</v>
-      </c>
-      <c r="AC2" s="4">
-        <v>2046</v>
-      </c>
-      <c r="AD2" s="4">
-        <v>2047</v>
-      </c>
-      <c r="AE2" s="4">
-        <v>2048</v>
-      </c>
-      <c r="AF2" s="4">
-        <v>2049</v>
-      </c>
-      <c r="AG2" s="5">
-        <v>2050</v>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.99</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0.98</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0.98</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0.97</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0.96</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0.93</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="K3" s="6">
+        <v>0.87</v>
+      </c>
+      <c r="L3" s="6">
+        <v>0.84</v>
+      </c>
+      <c r="M3" s="6">
+        <v>0.81</v>
+      </c>
+      <c r="N3" s="6">
+        <v>0.77</v>
+      </c>
+      <c r="O3" s="6">
+        <v>0.74</v>
+      </c>
+      <c r="P3" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>0.66</v>
+      </c>
+      <c r="R3" s="6">
+        <v>0.62</v>
+      </c>
+      <c r="S3" s="6">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="T3" s="6">
+        <v>0.54</v>
+      </c>
+      <c r="U3" s="6">
+        <v>0.49</v>
+      </c>
+      <c r="V3" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="W3" s="6">
+        <v>0.41</v>
+      </c>
+      <c r="X3" s="6">
+        <v>0.37</v>
+      </c>
+      <c r="Y3" s="6">
+        <v>0.33</v>
+      </c>
+      <c r="Z3" s="6">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AA3" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="AB3" s="6">
+        <v>0.21</v>
+      </c>
+      <c r="AC3" s="6">
+        <v>0.18</v>
+      </c>
+      <c r="AD3" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="AE3" s="6">
+        <v>0.12</v>
+      </c>
+      <c r="AF3" s="6">
+        <v>0.09</v>
+      </c>
+      <c r="AG3" s="7">
+        <v>0.06</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.5">
-      <c r="A3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7">
-        <v>1</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0.99</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0.98</v>
-      </c>
-      <c r="F3" s="7">
-        <v>0.98</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0.97</v>
-      </c>
-      <c r="H3" s="7">
-        <v>0.96</v>
-      </c>
-      <c r="I3" s="7">
-        <v>0.93</v>
-      </c>
-      <c r="J3" s="7">
-        <v>0.9</v>
-      </c>
-      <c r="K3" s="7">
-        <v>0.87</v>
-      </c>
-      <c r="L3" s="7">
-        <v>0.84</v>
-      </c>
-      <c r="M3" s="7">
-        <v>0.81</v>
-      </c>
-      <c r="N3" s="7">
-        <v>0.77</v>
-      </c>
-      <c r="O3" s="7">
-        <v>0.74</v>
-      </c>
-      <c r="P3" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="Q3" s="7">
-        <v>0.66</v>
-      </c>
-      <c r="R3" s="7">
-        <v>0.62</v>
-      </c>
-      <c r="S3" s="7">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="T3" s="7">
-        <v>0.54</v>
-      </c>
-      <c r="U3" s="7">
-        <v>0.49</v>
-      </c>
-      <c r="V3" s="7">
-        <v>0.45</v>
-      </c>
-      <c r="W3" s="7">
-        <v>0.41</v>
-      </c>
-      <c r="X3" s="7">
-        <v>0.37</v>
-      </c>
-      <c r="Y3" s="7">
-        <v>0.33</v>
-      </c>
-      <c r="Z3" s="7">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="AA3" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="AB3" s="7">
-        <v>0.21</v>
-      </c>
-      <c r="AC3" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="AD3" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="AE3" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="AF3" s="7">
-        <v>0.09</v>
-      </c>
-      <c r="AG3" s="8">
-        <v>0.06</v>
+    <row r="5" spans="1:33">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.5">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.5">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2">
-        <v>28</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.5">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:33">
+      <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6">
         <v>0.55000000000000004</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.5">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
-      <c r="AB7" s="2"/>
-      <c r="AC7" s="2"/>
-      <c r="AD7" s="2"/>
-      <c r="AE7" s="2"/>
-      <c r="AF7" s="2"/>
-      <c r="AG7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1583,17 +1450,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="f6f44a7d-d6f5-4042-8792-19cb5f90fb06">
-      <UserInfo>
-        <DisplayName>Andrew Isabirye</DisplayName>
-        <AccountId>30706</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1762,39 +1624,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="f6f44a7d-d6f5-4042-8792-19cb5f90fb06">
+      <UserInfo>
+        <DisplayName>Andrew Isabirye</DisplayName>
+        <AccountId>30706</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1DA6178-4AFE-4392-812F-6E8389CD2EED}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="3d37e6ce-6edb-40e9-806d-f289a0e60240"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="f6f44a7d-d6f5-4042-8792-19cb5f90fb06"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9009A692-B4CA-498A-A10B-38BC29B1B69F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A8B659B-8C58-444D-A66E-BB0577BCA70E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D8E4E13-DB0E-424C-86A0-0473D26620F3}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9009A692-B4CA-498A-A10B-38BC29B1B69F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1DA6178-4AFE-4392-812F-6E8389CD2EED}"/>
 </file>
--- a/import_data/Scope 3 Emissions Factors.xlsx
+++ b/import_data/Scope 3 Emissions Factors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://systemiq.sharepoint.com/Projects/MPP0006/Shared Documents/6_ Working documents/03 Steel python model/Data Sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="8_{8F4AF713-8A4C-4592-B1D8-6EA6215F16D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82B5F934-331B-47BE-B418-5681A79DE411}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="8_{8F4AF713-8A4C-4592-B1D8-6EA6215F16D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3AD5955E-43DB-457F-8B85-E80D1C66923C}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13373" xr2:uid="{20B9AD7C-31DE-49D1-ABBE-CD36CEC5113E}"/>
+    <workbookView xWindow="4510" yWindow="-16110" windowWidth="25820" windowHeight="15620" xr2:uid="{20B9AD7C-31DE-49D1-ABBE-CD36CEC5113E}"/>
   </bookViews>
   <sheets>
     <sheet name="Scope 3 EF" sheetId="1" r:id="rId1"/>
@@ -64,9 +64,6 @@
     <t>Met coal</t>
   </si>
   <si>
-    <t>Therm coal</t>
-  </si>
-  <si>
     <t>Slag</t>
   </si>
   <si>
@@ -84,12 +81,15 @@
   <si>
     <t>Slag [ton CO2eq/ton Slag]</t>
   </si>
+  <si>
+    <t>Thermal coal</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -513,18 +513,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{246167E3-ABFA-4DF2-BDC9-BE8A0DFB3E24}">
   <dimension ref="A1:AH6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:AH4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.9375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="1" customFormat="1">
+    <row r="1" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -628,7 +628,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -732,7 +732,7 @@
         <v>2.9723991507430998E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -836,7 +836,7 @@
         <v>1.1900000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -971,12 +971,12 @@
         <v>1.277584E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1075,15 +1075,15 @@
         <v>1.277584E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
         <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
       </c>
       <c r="D6">
         <f>Assumptions!$B$6*Assumptions!C3</f>
@@ -1224,15 +1224,15 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.5859375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5859375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:33" s="1" customFormat="1">
+    <row r="2" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3">
@@ -1329,9 +1329,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A3" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6">
@@ -1428,17 +1428,17 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>0.55000000000000004</v>
@@ -1450,12 +1450,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="f6f44a7d-d6f5-4042-8792-19cb5f90fb06">
+      <UserInfo>
+        <DisplayName>Andrew Isabirye</DisplayName>
+        <AccountId>30706</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1624,27 +1629,47 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="f6f44a7d-d6f5-4042-8792-19cb5f90fb06">
-      <UserInfo>
-        <DisplayName>Andrew Isabirye</DisplayName>
-        <AccountId>30706</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9009A692-B4CA-498A-A10B-38BC29B1B69F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1DA6178-4AFE-4392-812F-6E8389CD2EED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f6f44a7d-d6f5-4042-8792-19cb5f90fb06"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D8E4E13-DB0E-424C-86A0-0473D26620F3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D8E4E13-DB0E-424C-86A0-0473D26620F3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b44fa922-a688-4301-8945-67f7597c9c55"/>
+    <ds:schemaRef ds:uri="f6f44a7d-d6f5-4042-8792-19cb5f90fb06"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1DA6178-4AFE-4392-812F-6E8389CD2EED}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9009A692-B4CA-498A-A10B-38BC29B1B69F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>